--- a/TestFunctions.xlsx
+++ b/TestFunctions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zicooo82/Desktop/RedDeer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A14E194F-0136-114D-A83E-BBA651970EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229198B1-7FB2-2648-B94D-5DC087220BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15780" xr2:uid="{75FA0E2D-B2DD-FE47-B9A8-03BF8E4B33AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Lower Bound (LB)</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>Drop-Wave</t>
-  </si>
-  <si>
-    <t>langermann</t>
-  </si>
-  <si>
-    <t>Langermann</t>
   </si>
   <si>
     <t>rastrigin_function</t>
@@ -539,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79690434-9CB4-E448-9075-60894AD38AA4}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,13 +635,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -655,30 +649,30 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-10</v>
+        <v>-5.12</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
       <c r="C9">
-        <v>-5.12</v>
+        <v>-100</v>
       </c>
       <c r="D9">
-        <v>5.12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,66 +697,66 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-50</v>
+        <v>-10</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C15">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -773,10 +767,10 @@
         <v>35</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -809,13 +803,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -823,29 +817,15 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>-5</v>
       </c>
       <c r="D20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21">
-        <v>-5</v>
-      </c>
-      <c r="D21">
         <v>5</v>
       </c>
     </row>
